--- a/data/b_fcv.xlsx
+++ b/data/b_fcv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Base</t>
-  </si>
-  <si>
-    <t>Two Year Base</t>
-  </si>
-  <si>
-    <t>Three Year Base</t>
-  </si>
-  <si>
-    <t>Five Year Base</t>
-  </si>
-  <si>
-    <t>Ten Year Base</t>
+    <t>One Year Base mean</t>
+  </si>
+  <si>
+    <t>One Year Base std</t>
+  </si>
+  <si>
+    <t>Two Year Base mean</t>
+  </si>
+  <si>
+    <t>Two Year Base std</t>
+  </si>
+  <si>
+    <t>Three Year Base mean</t>
+  </si>
+  <si>
+    <t>Three Year Base std</t>
+  </si>
+  <si>
+    <t>Five Year Base mean</t>
+  </si>
+  <si>
+    <t>Five Year Base std</t>
+  </si>
+  <si>
+    <t>Ten Year Base mean</t>
+  </si>
+  <si>
+    <t>Ten Year Base std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.8186543298605201</v>
+        <v>0.8317426271571963</v>
       </c>
       <c r="D2">
-        <v>0.7888861233310179</v>
+        <v>0.01715971997364202</v>
       </c>
       <c r="E2">
-        <v>0.7700181773449233</v>
+        <v>0.8033368497016321</v>
       </c>
       <c r="F2">
-        <v>0.7458189931958643</v>
+        <v>0.01306585200858986</v>
       </c>
       <c r="G2">
-        <v>0.7211778423569033</v>
+        <v>0.7778297852612458</v>
+      </c>
+      <c r="H2">
+        <v>0.02064950253473409</v>
+      </c>
+      <c r="I2">
+        <v>0.7589321316852947</v>
+      </c>
+      <c r="J2">
+        <v>0.03640596425705438</v>
+      </c>
+      <c r="K2">
+        <v>0.7352025403434467</v>
+      </c>
+      <c r="L2">
+        <v>0.02607251922955917</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.7919375160840788</v>
+        <v>0.8325011319661169</v>
       </c>
       <c r="D3">
-        <v>0.7754943570743407</v>
+        <v>0.01646979078870436</v>
       </c>
       <c r="E3">
-        <v>0.7581423992324993</v>
+        <v>0.8085224903912558</v>
       </c>
       <c r="F3">
-        <v>0.7388512668000834</v>
+        <v>0.01995440407397837</v>
       </c>
       <c r="G3">
-        <v>0.7095040482849524</v>
+        <v>0.7861153457821016</v>
+      </c>
+      <c r="H3">
+        <v>0.01865946787760933</v>
+      </c>
+      <c r="I3">
+        <v>0.7625921613809259</v>
+      </c>
+      <c r="J3">
+        <v>0.04085995880965404</v>
+      </c>
+      <c r="K3">
+        <v>0.7377113586765425</v>
+      </c>
+      <c r="L3">
+        <v>0.03058972188679458</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.8061913919914595</v>
+        <v>0.8145307318468216</v>
       </c>
       <c r="D4">
-        <v>0.8003410990691917</v>
+        <v>0.01952530995386</v>
       </c>
       <c r="E4">
-        <v>0.7983866160397369</v>
+        <v>0.8052953430080002</v>
       </c>
       <c r="F4">
-        <v>0.7869137527026693</v>
+        <v>0.01194983127508635</v>
       </c>
       <c r="G4">
-        <v>0.7561928952763073</v>
+        <v>0.7988959717516018</v>
+      </c>
+      <c r="H4">
+        <v>0.02058333789712647</v>
+      </c>
+      <c r="I4">
+        <v>0.8000109637666627</v>
+      </c>
+      <c r="J4">
+        <v>0.02515356063336928</v>
+      </c>
+      <c r="K4">
+        <v>0.7801188808457724</v>
+      </c>
+      <c r="L4">
+        <v>0.0327547685636083</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7670531122250608</v>
+        <v>0.7773545747354136</v>
       </c>
       <c r="D5">
-        <v>0.7580039444801783</v>
+        <v>0.02791660714363068</v>
       </c>
       <c r="E5">
-        <v>0.7540550041855055</v>
+        <v>0.7725138683653101</v>
       </c>
       <c r="F5">
-        <v>0.762559836702965</v>
+        <v>0.01843029747341837</v>
       </c>
       <c r="G5">
-        <v>0.7598010512688581</v>
+        <v>0.757278652895173</v>
+      </c>
+      <c r="H5">
+        <v>0.0149455206563262</v>
+      </c>
+      <c r="I5">
+        <v>0.7594109637817301</v>
+      </c>
+      <c r="J5">
+        <v>0.01908002487854356</v>
+      </c>
+      <c r="K5">
+        <v>0.7642742789976529</v>
+      </c>
+      <c r="L5">
+        <v>0.03982100080525339</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.8155289040055477</v>
+        <v>0.8285672032604543</v>
       </c>
       <c r="D6">
-        <v>0.7987648693761197</v>
+        <v>0.01249175156544549</v>
       </c>
       <c r="E6">
-        <v>0.7847914520521311</v>
+        <v>0.8039313104964745</v>
       </c>
       <c r="F6">
-        <v>0.7625988307910717</v>
+        <v>0.01629834113246902</v>
       </c>
       <c r="G6">
-        <v>0.7423594797478961</v>
+        <v>0.7880214587958529</v>
+      </c>
+      <c r="H6">
+        <v>0.01208949883219567</v>
+      </c>
+      <c r="I6">
+        <v>0.7623704936737064</v>
+      </c>
+      <c r="J6">
+        <v>0.03389538437302407</v>
+      </c>
+      <c r="K6">
+        <v>0.7366169401383886</v>
+      </c>
+      <c r="L6">
+        <v>0.02939376754399653</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.8326140670343323</v>
+        <v>0.8310201872203299</v>
       </c>
       <c r="D7">
-        <v>0.810407150811729</v>
+        <v>0.0180603276673216</v>
       </c>
       <c r="E7">
-        <v>0.7797322542183664</v>
+        <v>0.8168284773799399</v>
       </c>
       <c r="F7">
-        <v>0.7482050277974694</v>
+        <v>0.02633227974139423</v>
       </c>
       <c r="G7">
-        <v>0.7482487220453479</v>
+        <v>0.8033637482405753</v>
+      </c>
+      <c r="H7">
+        <v>0.01691696951424706</v>
+      </c>
+      <c r="I7">
+        <v>0.7931524582033165</v>
+      </c>
+      <c r="J7">
+        <v>0.02516738916319707</v>
+      </c>
+      <c r="K7">
+        <v>0.7890413271233201</v>
+      </c>
+      <c r="L7">
+        <v>0.0218880873508531</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.7494918404285661</v>
+        <v>0.8238554171647789</v>
       </c>
       <c r="D8">
-        <v>0.7309545359064383</v>
+        <v>0.01440361324830105</v>
       </c>
       <c r="E8">
-        <v>0.7151755330381453</v>
+        <v>0.820511900741862</v>
       </c>
       <c r="F8">
-        <v>0.6904982210473842</v>
+        <v>0.01628071281129193</v>
       </c>
       <c r="G8">
-        <v>0.6547320053336939</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.8148706266594894</v>
-      </c>
-      <c r="D9">
-        <v>0.807558597861606</v>
-      </c>
-      <c r="E9">
-        <v>0.7998877959380503</v>
-      </c>
-      <c r="F9">
-        <v>0.7911978884293868</v>
-      </c>
-      <c r="G9">
-        <v>0.7710376046812086</v>
+        <v>0.8093517564401468</v>
+      </c>
+      <c r="H8">
+        <v>0.02041465758860431</v>
+      </c>
+      <c r="I8">
+        <v>0.8045937959344682</v>
+      </c>
+      <c r="J8">
+        <v>0.03361065626712906</v>
+      </c>
+      <c r="K8">
+        <v>0.7730943181097725</v>
+      </c>
+      <c r="L8">
+        <v>0.02980845192313035</v>
       </c>
     </row>
   </sheetData>
